--- a/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>267.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>61.4278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
@@ -1587,12 +1587,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/其他/BABA-阿里巴巴集团控股有限公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>350.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>83.9190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.06</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.91</v>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1634,13 +1699,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>25.56</v>
       </c>
     </row>
